--- a/src/test/resources/DataFiles/CreationRulesSailPoint.xlsx
+++ b/src/test/resources/DataFiles/CreationRulesSailPoint.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530"/>
+    <workbookView windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateRulesOfSailpoint" sheetId="7" r:id="rId1"/>
+    <sheet name="SelectRule" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>Correlation Rule</t>
+    <t>Before Provisioning Rule</t>
   </si>
   <si>
     <t>Create CorretionRule</t>
@@ -40,6 +41,20 @@
     <t>Welcome
 To
 Ojas Innovative Technologies</t>
+  </si>
+  <si>
+    <t>Correlation Rule</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CorrelationName</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -52,13 +67,26 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -544,137 +572,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1000,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1025,20 +1056,64 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="45" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="31.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/DataFiles/CreationRulesSailPoint.xlsx
+++ b/src/test/resources/DataFiles/CreationRulesSailPoint.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="CreateRulesOfSailpoint" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -28,7 +41,7 @@
     <t>WritingRuleEditor</t>
   </si>
   <si>
-    <t>Employee</t>
+    <t>GraceApp</t>
   </si>
   <si>
     <t>Correlation Rule</t>
@@ -41,24 +54,34 @@
 To
 Ojas Innovative Technologies</t>
   </si>
+  <si>
+    <t>Creation Rule</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -544,141 +567,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -1041,6 +1065,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" ht="45" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
